--- a/data/all/ALL_CAL_TOTAL.xlsx
+++ b/data/all/ALL_CAL_TOTAL.xlsx
@@ -3,91 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2390" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KYAPISAL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KYAPISAL!$A$1:$H$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KYAPISAL'!$A$1:$H$32</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
-  <si>
-    <t>ALL COMPANIES</t>
-  </si>
-  <si>
-    <t>COMPOSITION OF ASSETS AND LIABILITIES (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>(%)</t>
-  </si>
-  <si>
-    <t>COMPOSITION OF ASSETS</t>
-  </si>
-  <si>
-    <t>Current Assets</t>
-  </si>
-  <si>
-    <t>Fixed Assets</t>
-  </si>
-  <si>
-    <t>COMPOSITION OF LIABILITIES</t>
-  </si>
-  <si>
-    <t>Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t>Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t>Own Funds</t>
-  </si>
-  <si>
-    <t>COMPOSITION OF SHAREHOLDERS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EQUITY</t>
-  </si>
-  <si>
-    <t>Paid-in Capital</t>
-  </si>
-  <si>
-    <t>Capital Reserves</t>
-  </si>
-  <si>
-    <t>Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t>Profit Brought Forward</t>
-  </si>
-  <si>
-    <t>Loss Brought Forward  (-)</t>
-  </si>
-  <si>
-    <t>Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t>Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t>Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Companies  </t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -249,110 +181,182 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+  <cellXfs count="55">
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="7" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="7" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="7" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="2" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -647,40 +651,45 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X32"/>
+  <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="W30" sqref="W30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="4" width="28.125"/>
-    <col customWidth="1" max="3" min="3" style="23" width="11.125"/>
-    <col customWidth="1" max="4" min="4" style="23" width="4.5"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="4" width="11.125"/>
-    <col customWidth="1" max="6" min="6" style="23" width="4.5"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="4" width="11.125"/>
-    <col customWidth="1" max="8" min="8" style="23" width="4.5"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="4" width="11.125"/>
-    <col customWidth="1" max="10" min="10" style="23" width="4.5"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="4" width="11.125"/>
-    <col customWidth="1" max="12" min="12" style="23" width="4.5"/>
-    <col bestFit="1" customWidth="1" max="13" min="13" style="4" width="11.125"/>
-    <col customWidth="1" max="14" min="14" style="23" width="4.5"/>
-    <col bestFit="1" customWidth="1" max="15" min="15" style="4" width="11.125"/>
-    <col customWidth="1" max="16" min="16" style="23" width="4.5"/>
-    <col bestFit="1" customWidth="1" max="17" min="17" style="4" width="11.125"/>
-    <col customWidth="1" max="18" min="18" style="23" width="4.5"/>
-    <col bestFit="1" customWidth="1" max="19" min="19" style="4" width="11.125"/>
-    <col customWidth="1" max="20" min="20" style="23" width="4.5"/>
-    <col bestFit="1" customWidth="1" max="21" min="21" style="4" width="11.125"/>
-    <col customWidth="1" max="22" min="22" style="23" width="4.5"/>
-    <col customWidth="1" max="16384" min="23" style="4" width="9"/>
+    <col width="1.58203125" customWidth="1" style="4" min="1" max="1"/>
+    <col width="28.08203125" customWidth="1" style="4" min="2" max="2"/>
+    <col width="11.08203125" customWidth="1" style="23" min="3" max="3"/>
+    <col width="4.5" customWidth="1" style="23" min="4" max="4"/>
+    <col width="11.08203125" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
+    <col width="4.5" customWidth="1" style="23" min="6" max="6"/>
+    <col width="11.08203125" bestFit="1" customWidth="1" style="4" min="7" max="7"/>
+    <col width="4.5" customWidth="1" style="23" min="8" max="8"/>
+    <col width="11.08203125" bestFit="1" customWidth="1" style="4" min="9" max="9"/>
+    <col width="4.5" customWidth="1" style="23" min="10" max="10"/>
+    <col width="11.08203125" bestFit="1" customWidth="1" style="4" min="11" max="11"/>
+    <col width="4.5" customWidth="1" style="23" min="12" max="12"/>
+    <col width="11.08203125" bestFit="1" customWidth="1" style="4" min="13" max="13"/>
+    <col width="4.5" customWidth="1" style="23" min="14" max="14"/>
+    <col width="11.08203125" bestFit="1" customWidth="1" style="4" min="15" max="15"/>
+    <col width="4.5" customWidth="1" style="23" min="16" max="16"/>
+    <col width="11.08203125" bestFit="1" customWidth="1" style="4" min="17" max="17"/>
+    <col width="4.5" customWidth="1" style="23" min="18" max="18"/>
+    <col width="11.08203125" bestFit="1" customWidth="1" style="4" min="19" max="19"/>
+    <col width="4.5" customWidth="1" style="23" min="20" max="20"/>
+    <col width="11.08203125" bestFit="1" customWidth="1" style="4" min="21" max="21"/>
+    <col width="4.5" customWidth="1" style="23" min="22" max="22"/>
+    <col width="11.08203125" customWidth="1" style="23" min="23" max="23"/>
+    <col width="4.5" customWidth="1" style="23" min="24" max="24"/>
+    <col width="11.08203125" customWidth="1" style="4" min="25" max="25"/>
+    <col width="4.5" customWidth="1" style="4" min="26" max="26"/>
+    <col width="3.08203125" customWidth="1" style="4" min="27" max="27"/>
+    <col hidden="1" width="9" customWidth="1" style="4" min="28" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12" r="1" s="53" spans="1:24">
+    <row r="1" ht="12" customHeight="1" s="54">
       <c r="A1" s="27" t="n"/>
       <c r="B1" s="27" t="n"/>
       <c r="C1" s="20" t="n"/>
@@ -703,11 +712,16 @@
       <c r="T1" s="20" t="n"/>
       <c r="U1" s="27" t="n"/>
       <c r="V1" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.25" r="2" s="53" spans="1:24">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
+      <c r="W1" s="20" t="n"/>
+      <c r="X1" s="20" t="n"/>
+    </row>
+    <row r="2" ht="14.25" customHeight="1" s="54">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>ALL COMPANIES</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n"/>
       <c r="C2" s="20" t="n"/>
       <c r="D2" s="21" t="n"/>
       <c r="E2" s="27" t="n"/>
@@ -728,11 +742,16 @@
       <c r="T2" s="21" t="n"/>
       <c r="U2" s="27" t="n"/>
       <c r="V2" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="3" s="53" spans="1:24">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
+      <c r="W2" s="21" t="n"/>
+      <c r="X2" s="21" t="n"/>
+    </row>
+    <row r="3" ht="12" customHeight="1" s="54">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>COMPOSITION OF ASSETS AND LIABILITIES (TRY THOUSANDS)</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n"/>
       <c r="C3" s="20" t="n"/>
       <c r="D3" s="21" t="n"/>
       <c r="E3" s="27" t="n"/>
@@ -753,8 +772,10 @@
       <c r="T3" s="21" t="n"/>
       <c r="U3" s="27" t="n"/>
       <c r="V3" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="6.75" r="4" s="53" spans="1:24">
+      <c r="W3" s="21" t="n"/>
+      <c r="X3" s="21" t="n"/>
+    </row>
+    <row r="4" ht="6.75" customHeight="1" s="54">
       <c r="A4" s="27" t="n"/>
       <c r="B4" s="5" t="n"/>
       <c r="C4" s="20" t="n"/>
@@ -777,78 +798,110 @@
       <c r="T4" s="20" t="n"/>
       <c r="U4" s="27" t="n"/>
       <c r="V4" s="20" t="n"/>
-    </row>
-    <row customHeight="1" ht="30.75" r="5" s="53" spans="1:24">
+      <c r="W4" s="20" t="n"/>
+      <c r="X4" s="20" t="n"/>
+    </row>
+    <row r="5" ht="30.75" customHeight="1" s="54">
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="n"/>
       <c r="C5" s="28" t="n">
         <v>2009</v>
       </c>
-      <c r="D5" s="30" t="s">
-        <v>2</v>
+      <c r="D5" s="30" t="inlineStr">
+        <is>
+          <t>(%)</t>
+        </is>
       </c>
       <c r="E5" s="29" t="n">
         <v>2010</v>
       </c>
-      <c r="F5" s="30" t="s">
-        <v>2</v>
+      <c r="F5" s="30" t="inlineStr">
+        <is>
+          <t>(%)</t>
+        </is>
       </c>
       <c r="G5" s="28" t="n">
         <v>2011</v>
       </c>
-      <c r="H5" s="30" t="s">
-        <v>2</v>
+      <c r="H5" s="30" t="inlineStr">
+        <is>
+          <t>(%)</t>
+        </is>
       </c>
       <c r="I5" s="28" t="n">
         <v>2012</v>
       </c>
-      <c r="J5" s="30" t="s">
-        <v>2</v>
+      <c r="J5" s="30" t="inlineStr">
+        <is>
+          <t>(%)</t>
+        </is>
       </c>
       <c r="K5" s="28" t="n">
         <v>2013</v>
       </c>
-      <c r="L5" s="30" t="s">
-        <v>2</v>
+      <c r="L5" s="30" t="inlineStr">
+        <is>
+          <t>(%)</t>
+        </is>
       </c>
       <c r="M5" s="28" t="n">
         <v>2014</v>
       </c>
-      <c r="N5" s="30" t="s">
-        <v>2</v>
+      <c r="N5" s="30" t="inlineStr">
+        <is>
+          <t>(%)</t>
+        </is>
       </c>
       <c r="O5" s="28" t="n">
         <v>2015</v>
       </c>
-      <c r="P5" s="30" t="s">
-        <v>2</v>
+      <c r="P5" s="30" t="inlineStr">
+        <is>
+          <t>(%)</t>
+        </is>
       </c>
       <c r="Q5" s="28" t="n">
         <v>2016</v>
       </c>
-      <c r="R5" s="30" t="s">
-        <v>2</v>
+      <c r="R5" s="30" t="inlineStr">
+        <is>
+          <t>(%)</t>
+        </is>
       </c>
       <c r="S5" s="28" t="n">
         <v>2017</v>
       </c>
-      <c r="T5" s="30" t="s">
-        <v>2</v>
+      <c r="T5" s="30" t="inlineStr">
+        <is>
+          <t>(%)</t>
+        </is>
       </c>
       <c r="U5" s="28" t="n">
         <v>2018</v>
       </c>
-      <c r="V5" s="47" t="s">
-        <v>2</v>
+      <c r="V5" s="52" t="inlineStr">
+        <is>
+          <t>(%)</t>
+        </is>
       </c>
       <c r="W5" s="28" t="n">
         <v>2019</v>
       </c>
-      <c r="X5" s="30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.75" r="6" s="53" spans="1:24">
+      <c r="X5" s="52" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="Y5" s="28" t="n">
+        <v>2020</v>
+      </c>
+      <c r="Z5" s="30" t="inlineStr">
+        <is>
+          <t>(%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="13" customHeight="1" s="54">
       <c r="A6" s="16" t="n"/>
       <c r="B6" s="9" t="n"/>
       <c r="C6" s="24" t="n"/>
@@ -869,15 +922,19 @@
       <c r="R6" s="34" t="n"/>
       <c r="S6" s="18" t="n"/>
       <c r="T6" s="34" t="n"/>
-      <c r="U6" s="48" t="n"/>
-      <c r="V6" s="48" t="n"/>
-      <c r="W6" s="18" t="n"/>
-      <c r="X6" s="34" t="n"/>
-    </row>
-    <row customHeight="1" ht="11.25" r="7" s="53" spans="1:24">
+      <c r="U6" s="47" t="n"/>
+      <c r="V6" s="34" t="n"/>
+      <c r="W6" s="47" t="n"/>
+      <c r="X6" s="47" t="n"/>
+      <c r="Y6" s="18" t="n"/>
+      <c r="Z6" s="34" t="n"/>
+    </row>
+    <row r="7" ht="10.5" customHeight="1" s="54">
       <c r="A7" s="16" t="n"/>
-      <c r="B7" s="10" t="s">
-        <v>3</v>
+      <c r="B7" s="10" t="inlineStr">
+        <is>
+          <t>COMPOSITION OF ASSETS</t>
+        </is>
       </c>
       <c r="C7" s="25" t="n"/>
       <c r="D7" s="31" t="n"/>
@@ -898,11 +955,13 @@
       <c r="S7" s="25" t="n"/>
       <c r="T7" s="31" t="n"/>
       <c r="U7" s="22" t="n"/>
-      <c r="V7" s="22" t="n"/>
-      <c r="W7" s="25" t="n"/>
-      <c r="X7" s="31" t="n"/>
-    </row>
-    <row customHeight="1" ht="11.25" r="8" s="53" spans="1:24">
+      <c r="V7" s="31" t="n"/>
+      <c r="W7" s="22" t="n"/>
+      <c r="X7" s="22" t="n"/>
+      <c r="Y7" s="25" t="n"/>
+      <c r="Z7" s="31" t="n"/>
+    </row>
+    <row r="8" ht="10.5" customHeight="1" s="54">
       <c r="A8" s="16" t="n"/>
       <c r="B8" s="27" t="n"/>
       <c r="C8" s="19" t="n"/>
@@ -924,155 +983,173 @@
       <c r="S8" s="16" t="n"/>
       <c r="T8" s="32" t="n"/>
       <c r="U8" s="20" t="n"/>
-      <c r="V8" s="20" t="n"/>
-      <c r="W8" s="16" t="n"/>
-      <c r="X8" s="32" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="11.25" r="9" s="3" spans="1:24">
+      <c r="V8" s="32" t="n"/>
+      <c r="W8" s="20" t="n"/>
+      <c r="X8" s="20" t="n"/>
+      <c r="Y8" s="16" t="n"/>
+      <c r="Z8" s="32" t="n"/>
+    </row>
+    <row r="9" ht="10.5" customFormat="1" customHeight="1" s="3">
       <c r="A9" s="17" t="n"/>
-      <c r="B9" s="27" t="s">
-        <v>4</v>
+      <c r="B9" s="27" t="inlineStr">
+        <is>
+          <t>Current Assets</t>
+        </is>
       </c>
       <c r="C9" s="39" t="n">
-        <v>976170007.28028</v>
+        <v>972616265.37333</v>
       </c>
       <c r="D9" s="45" t="n">
-        <v>49.85025122715682</v>
+        <v>54.14753401438893</v>
       </c>
       <c r="E9" s="39" t="n">
-        <v>1139588228.2348</v>
+        <v>1139183825.69783</v>
       </c>
       <c r="F9" s="45" t="n">
-        <v>51.35649454453534</v>
+        <v>55.21289075310014</v>
       </c>
       <c r="G9" s="39" t="n">
-        <v>1355756709.50665</v>
+        <v>1355095373.80945</v>
       </c>
       <c r="H9" s="45" t="n">
-        <v>55.80848168179632</v>
+        <v>55.7368959613292</v>
       </c>
       <c r="I9" s="39" t="n">
-        <v>1540871278.67606</v>
+        <v>1547731646.62269</v>
       </c>
       <c r="J9" s="45" t="n">
-        <v>55.87382254745508</v>
+        <v>55.79506798743452</v>
       </c>
       <c r="K9" s="39" t="n">
-        <v>1867343449.9327</v>
+        <v>1884759245.06383</v>
       </c>
       <c r="L9" s="45" t="n">
-        <v>56.35373142701776</v>
+        <v>56.22644692371848</v>
       </c>
       <c r="M9" s="39" t="n">
-        <v>2133005354.222</v>
+        <v>2171822362.37319</v>
       </c>
       <c r="N9" s="45" t="n">
-        <v>56.29079578495721</v>
+        <v>56.16375647174988</v>
       </c>
       <c r="O9" s="39" t="n">
-        <v>2395260259.42963</v>
+        <v>2569076818.79956</v>
       </c>
       <c r="P9" s="45" t="n">
-        <v>56.39108332861105</v>
+        <v>55.79271589554756</v>
       </c>
       <c r="Q9" s="39" t="n">
-        <v>2955368565.17445</v>
+        <v>3010815640.24567</v>
       </c>
       <c r="R9" s="45" t="n">
-        <v>55.80135636714674</v>
+        <v>55.75323567772688</v>
       </c>
       <c r="S9" s="39" t="n">
-        <v>3666800150.89123</v>
+        <v>3666885745.01301</v>
       </c>
       <c r="T9" s="45" t="n">
-        <v>56.96512551287595</v>
-      </c>
-      <c r="U9" s="49" t="n">
-        <v>4379200714.140161</v>
-      </c>
-      <c r="V9" s="49" t="n">
-        <v>57.56945122340532</v>
-      </c>
-      <c r="W9" s="39" t="n">
-        <v>4979160853.74805</v>
-      </c>
-      <c r="X9" s="45" t="n">
-        <v>57.95709732075026</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="11.25" r="10" s="53" spans="1:24">
+        <v>56.96687746866934</v>
+      </c>
+      <c r="U9" s="48" t="n">
+        <v>4427018676.336511</v>
+      </c>
+      <c r="V9" s="45" t="n">
+        <v>57.76996366614964</v>
+      </c>
+      <c r="W9" s="48" t="n">
+        <v>5082138410.10154</v>
+      </c>
+      <c r="X9" s="48" t="n">
+        <v>58.31225626964744</v>
+      </c>
+      <c r="Y9" s="39" t="n">
+        <v>6380277028.445</v>
+      </c>
+      <c r="Z9" s="45" t="n">
+        <v>60.21013638227469</v>
+      </c>
+    </row>
+    <row r="10" ht="10.5" customHeight="1" s="54">
       <c r="A10" s="16" t="n"/>
-      <c r="B10" s="27" t="s">
-        <v>5</v>
+      <c r="B10" s="27" t="inlineStr">
+        <is>
+          <t>Fixed Assets</t>
+        </is>
       </c>
       <c r="C10" s="39" t="n">
-        <v>982034782.5653799</v>
+        <v>823617456.21198</v>
       </c>
       <c r="D10" s="45" t="n">
-        <v>50.14974877284316</v>
+        <v>45.85246598561106</v>
       </c>
       <c r="E10" s="39" t="n">
-        <v>1079387654.64321</v>
+        <v>924073160.4143599</v>
       </c>
       <c r="F10" s="45" t="n">
-        <v>48.64350545546466</v>
+        <v>44.78710924689985</v>
       </c>
       <c r="G10" s="39" t="n">
-        <v>1073545555.40136</v>
+        <v>1076140435.85894</v>
       </c>
       <c r="H10" s="45" t="n">
-        <v>44.19151831820367</v>
+        <v>44.26310403867081</v>
       </c>
       <c r="I10" s="39" t="n">
-        <v>1216898296.45433</v>
+        <v>1226226164.43554</v>
       </c>
       <c r="J10" s="45" t="n">
-        <v>44.12617745254492</v>
+        <v>44.20493201256547</v>
       </c>
       <c r="K10" s="39" t="n">
-        <v>1446267561.52454</v>
+        <v>1467327447.55762</v>
       </c>
       <c r="L10" s="45" t="n">
-        <v>43.64626857298223</v>
+        <v>43.77355307628152</v>
       </c>
       <c r="M10" s="39" t="n">
-        <v>1656255970.79201</v>
+        <v>1695124043.65221</v>
       </c>
       <c r="N10" s="45" t="n">
-        <v>43.7092042150428</v>
+        <v>43.83624352825012</v>
       </c>
       <c r="O10" s="39" t="n">
-        <v>1852326624.95702</v>
+        <v>2035604594.46819</v>
       </c>
       <c r="P10" s="45" t="n">
-        <v>43.60891667138894</v>
+        <v>44.20728410445244</v>
       </c>
       <c r="Q10" s="39" t="n">
-        <v>2340862131.67369</v>
+        <v>2389437104.99271</v>
       </c>
       <c r="R10" s="45" t="n">
-        <v>44.19864363285325</v>
+        <v>44.24676432227312</v>
       </c>
       <c r="S10" s="39" t="n">
-        <v>2770120891.37421</v>
+        <v>2769987589.02171</v>
       </c>
       <c r="T10" s="45" t="n">
-        <v>43.03487448712406</v>
-      </c>
-      <c r="U10" s="49" t="n">
-        <v>3227612658.36557</v>
-      </c>
-      <c r="V10" s="49" t="n">
-        <v>42.43054877659467</v>
-      </c>
-      <c r="W10" s="39" t="n">
-        <v>3611954098.38978</v>
-      </c>
-      <c r="X10" s="45" t="n">
-        <v>42.04290267924973</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="11.25" r="11" s="53" spans="1:24">
+        <v>43.03312253133066</v>
+      </c>
+      <c r="U10" s="48" t="n">
+        <v>3236165434.2163</v>
+      </c>
+      <c r="V10" s="45" t="n">
+        <v>42.23003633385037</v>
+      </c>
+      <c r="W10" s="48" t="n">
+        <v>3633247917.26114</v>
+      </c>
+      <c r="X10" s="48" t="n">
+        <v>41.68774373035256</v>
+      </c>
+      <c r="Y10" s="39" t="n">
+        <v>4216405543.301</v>
+      </c>
+      <c r="Z10" s="45" t="n">
+        <v>39.78986361772531</v>
+      </c>
+    </row>
+    <row r="11" ht="10.5" customHeight="1" s="54">
       <c r="A11" s="16" t="n"/>
       <c r="B11" s="27" t="n"/>
       <c r="C11" s="39" t="n"/>
@@ -1093,15 +1170,19 @@
       <c r="R11" s="45" t="n"/>
       <c r="S11" s="41" t="n"/>
       <c r="T11" s="45" t="n"/>
-      <c r="U11" s="49" t="n"/>
-      <c r="V11" s="49" t="n"/>
-      <c r="W11" s="41" t="n"/>
-      <c r="X11" s="45" t="n"/>
-    </row>
-    <row customHeight="1" ht="11.25" r="12" s="53" spans="1:24">
+      <c r="U11" s="48" t="n"/>
+      <c r="V11" s="45" t="n"/>
+      <c r="W11" s="48" t="n"/>
+      <c r="X11" s="48" t="n"/>
+      <c r="Y11" s="41" t="n"/>
+      <c r="Z11" s="45" t="n"/>
+    </row>
+    <row r="12" ht="10.5" customHeight="1" s="54">
       <c r="A12" s="16" t="n"/>
-      <c r="B12" s="10" t="s">
-        <v>6</v>
+      <c r="B12" s="10" t="inlineStr">
+        <is>
+          <t>COMPOSITION OF LIABILITIES</t>
+        </is>
       </c>
       <c r="C12" s="42" t="n"/>
       <c r="D12" s="46" t="n"/>
@@ -1121,12 +1202,14 @@
       <c r="R12" s="46" t="n"/>
       <c r="S12" s="42" t="n"/>
       <c r="T12" s="46" t="n"/>
-      <c r="U12" s="50" t="n"/>
-      <c r="V12" s="50" t="n"/>
-      <c r="W12" s="42" t="n"/>
-      <c r="X12" s="46" t="n"/>
-    </row>
-    <row customHeight="1" ht="11.25" r="13" s="53" spans="1:24">
+      <c r="U12" s="49" t="n"/>
+      <c r="V12" s="46" t="n"/>
+      <c r="W12" s="49" t="n"/>
+      <c r="X12" s="49" t="n"/>
+      <c r="Y12" s="42" t="n"/>
+      <c r="Z12" s="46" t="n"/>
+    </row>
+    <row r="13" ht="10.5" customHeight="1" s="54">
       <c r="A13" s="16" t="n"/>
       <c r="B13" s="27" t="n"/>
       <c r="C13" s="39" t="n"/>
@@ -1147,228 +1230,254 @@
       <c r="R13" s="45" t="n"/>
       <c r="S13" s="41" t="n"/>
       <c r="T13" s="45" t="n"/>
-      <c r="U13" s="49" t="n"/>
-      <c r="V13" s="49" t="n"/>
-      <c r="W13" s="41" t="n"/>
-      <c r="X13" s="45" t="n"/>
-    </row>
-    <row customHeight="1" ht="11.25" r="14" s="53" spans="1:24">
+      <c r="U13" s="48" t="n"/>
+      <c r="V13" s="45" t="n"/>
+      <c r="W13" s="48" t="n"/>
+      <c r="X13" s="48" t="n"/>
+      <c r="Y13" s="41" t="n"/>
+      <c r="Z13" s="45" t="n"/>
+    </row>
+    <row r="14" ht="10.5" customHeight="1" s="54">
       <c r="A14" s="16" t="n"/>
-      <c r="B14" s="27" t="s">
-        <v>7</v>
+      <c r="B14" s="27" t="inlineStr">
+        <is>
+          <t>Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C14" s="39" t="n">
-        <v>741926687.8831198</v>
+        <v>738390313.3114699</v>
       </c>
       <c r="D14" s="45" t="n">
-        <v>37.88810505062631</v>
+        <v>41.10769686807714</v>
       </c>
       <c r="E14" s="39" t="n">
-        <v>848697728.4374299</v>
+        <v>848519105.8446701</v>
       </c>
       <c r="F14" s="45" t="n">
-        <v>38.2472714095779</v>
+        <v>41.12522635600235</v>
       </c>
       <c r="G14" s="39" t="n">
-        <v>1035083038.58331</v>
+        <v>1034053473.5507</v>
       </c>
       <c r="H14" s="45" t="n">
-        <v>42.60824408454192</v>
+        <v>42.53201065230034</v>
       </c>
       <c r="I14" s="39" t="n">
-        <v>1179374279.44711</v>
+        <v>1185055249.14079</v>
       </c>
       <c r="J14" s="45" t="n">
-        <v>42.76551203127071</v>
+        <v>42.72073801615268</v>
       </c>
       <c r="K14" s="39" t="n">
-        <v>1443623401.23909</v>
+        <v>1459372614.42425</v>
       </c>
       <c r="L14" s="45" t="n">
-        <v>43.56647163012118</v>
+        <v>43.53624318955095</v>
       </c>
       <c r="M14" s="39" t="n">
-        <v>1660856962.46295</v>
+        <v>1690030714.00127</v>
       </c>
       <c r="N14" s="45" t="n">
-        <v>43.8306260774139</v>
+        <v>43.70452901462243</v>
       </c>
       <c r="O14" s="39" t="n">
-        <v>1911269271.14086</v>
+        <v>2033221483.46235</v>
       </c>
       <c r="P14" s="45" t="n">
-        <v>44.99659037385049</v>
+        <v>44.15553001351851</v>
       </c>
       <c r="Q14" s="39" t="n">
-        <v>2359113936.1255</v>
+        <v>2402478151.62982</v>
       </c>
       <c r="R14" s="45" t="n">
-        <v>44.54326239091965</v>
+        <v>44.4882538830832</v>
       </c>
       <c r="S14" s="39" t="n">
-        <v>2906909447.85045</v>
+        <v>2906932739.61973</v>
       </c>
       <c r="T14" s="45" t="n">
-        <v>45.1599363851662</v>
-      </c>
-      <c r="U14" s="49" t="n">
-        <v>3495685100.11361</v>
-      </c>
-      <c r="V14" s="49" t="n">
-        <v>45.95465839543939</v>
-      </c>
-      <c r="W14" s="39" t="n">
-        <v>3922357047.00205</v>
-      </c>
-      <c r="X14" s="45" t="n">
-        <v>45.65597211600577</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="11.25" r="15" s="3" spans="1:24">
+        <v>45.16063294658037</v>
+      </c>
+      <c r="U14" s="48" t="n">
+        <v>3541567215.7741</v>
+      </c>
+      <c r="V14" s="45" t="n">
+        <v>46.2153481461718</v>
+      </c>
+      <c r="W14" s="48" t="n">
+        <v>4016207160.89193</v>
+      </c>
+      <c r="X14" s="48" t="n">
+        <v>46.0818030324452</v>
+      </c>
+      <c r="Y14" s="39" t="n">
+        <v>4925357582.437</v>
+      </c>
+      <c r="Z14" s="45" t="n">
+        <v>46.48018423774919</v>
+      </c>
+    </row>
+    <row r="15" ht="10.5" customFormat="1" customHeight="1" s="3">
       <c r="A15" s="17" t="n"/>
-      <c r="B15" s="27" t="s">
-        <v>8</v>
+      <c r="B15" s="27" t="inlineStr">
+        <is>
+          <t>Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C15" s="39" t="n">
-        <v>427809107.8740301</v>
+        <v>269372637.55448</v>
       </c>
       <c r="D15" s="45" t="n">
-        <v>21.84700548647666</v>
+        <v>14.99652491306858</v>
       </c>
       <c r="E15" s="39" t="n">
-        <v>475707191.28881</v>
+        <v>318439976.12665</v>
       </c>
       <c r="F15" s="45" t="n">
-        <v>21.43814157510437</v>
+        <v>15.433849407518</v>
       </c>
       <c r="G15" s="39" t="n">
-        <v>411597083.9849</v>
+        <v>411926196.0372699</v>
       </c>
       <c r="H15" s="45" t="n">
-        <v>16.94301651673987</v>
+        <v>16.94307867624963</v>
       </c>
       <c r="I15" s="39" t="n">
-        <v>458298481.71461</v>
+        <v>460614172.60132</v>
       </c>
       <c r="J15" s="45" t="n">
-        <v>16.61844723531484</v>
+        <v>16.60494513525429</v>
       </c>
       <c r="K15" s="39" t="n">
-        <v>629480526.9360499</v>
+        <v>638761490.68679</v>
       </c>
       <c r="L15" s="45" t="n">
-        <v>18.99681419332382</v>
+        <v>19.05563755534186</v>
       </c>
       <c r="M15" s="39" t="n">
-        <v>762116800.9093699</v>
+        <v>782315559.09305</v>
       </c>
       <c r="N15" s="45" t="n">
-        <v>20.112542671006</v>
+        <v>20.23083531424333</v>
       </c>
       <c r="O15" s="39" t="n">
-        <v>900083338.33428</v>
+        <v>1001221361.11689</v>
       </c>
       <c r="P15" s="45" t="n">
-        <v>21.190463263808</v>
+        <v>21.74355338095725</v>
       </c>
       <c r="Q15" s="39" t="n">
-        <v>1252846537.32786</v>
+        <v>1263445180.26929</v>
       </c>
       <c r="R15" s="45" t="n">
-        <v>23.65543740519925</v>
+        <v>23.39603792402718</v>
       </c>
       <c r="S15" s="39" t="n">
-        <v>1553392287.13249</v>
+        <v>1553321287.13249</v>
       </c>
       <c r="T15" s="45" t="n">
-        <v>24.13253598937703</v>
-      </c>
-      <c r="U15" s="49" t="n">
-        <v>1961603495.83363</v>
-      </c>
-      <c r="V15" s="49" t="n">
-        <v>25.78745395442067</v>
-      </c>
-      <c r="W15" s="39" t="n">
-        <v>2193126685.51953</v>
-      </c>
-      <c r="X15" s="45" t="n">
-        <v>25.52784705754389</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="11.25" r="16" s="53" spans="1:24">
+        <v>24.1316118327102</v>
+      </c>
+      <c r="U15" s="48" t="n">
+        <v>1963891858.312</v>
+      </c>
+      <c r="V15" s="45" t="n">
+        <v>25.62762201690503</v>
+      </c>
+      <c r="W15" s="48" t="n">
+        <v>2204065655.65911</v>
+      </c>
+      <c r="X15" s="48" t="n">
+        <v>25.28936266128861</v>
+      </c>
+      <c r="Y15" s="39" t="n">
+        <v>2813980370.409</v>
+      </c>
+      <c r="Z15" s="45" t="n">
+        <v>26.55529550268811</v>
+      </c>
+    </row>
+    <row r="16" ht="10.5" customHeight="1" s="54">
       <c r="A16" s="16" t="n"/>
-      <c r="B16" s="27" t="s">
-        <v>9</v>
+      <c r="B16" s="27" t="inlineStr">
+        <is>
+          <t>Own Funds</t>
+        </is>
       </c>
       <c r="C16" s="39" t="n">
-        <v>788468994.08851</v>
+        <v>788470770.71936</v>
       </c>
       <c r="D16" s="45" t="n">
-        <v>40.26488946289702</v>
+        <v>43.89577821885427</v>
       </c>
       <c r="E16" s="44" t="n">
-        <v>894570963.15177</v>
+        <v>896297904.14087</v>
       </c>
       <c r="F16" s="45" t="n">
-        <v>40.31458701531771</v>
+        <v>43.44092423647965</v>
       </c>
       <c r="G16" s="39" t="n">
-        <v>982622142.3398</v>
+        <v>985256140.0804199</v>
       </c>
       <c r="H16" s="45" t="n">
-        <v>40.4487393987182</v>
+        <v>40.52491067145002</v>
       </c>
       <c r="I16" s="39" t="n">
-        <v>1120096813.96867</v>
+        <v>1128288389.31612</v>
       </c>
       <c r="J16" s="45" t="n">
-        <v>40.61604073341445</v>
+        <v>40.67431684859304</v>
       </c>
       <c r="K16" s="39" t="n">
-        <v>1240507083.2821</v>
+        <v>1253952587.51041</v>
       </c>
       <c r="L16" s="45" t="n">
-        <v>37.436714176555</v>
+        <v>37.40811925510717</v>
       </c>
       <c r="M16" s="39" t="n">
-        <v>1366287561.64169</v>
+        <v>1394600132.93108</v>
       </c>
       <c r="N16" s="45" t="n">
-        <v>36.05683125158011</v>
+        <v>36.06463567113424</v>
       </c>
       <c r="O16" s="39" t="n">
-        <v>1436234274.91151</v>
+        <v>1570238568.68851</v>
       </c>
       <c r="P16" s="45" t="n">
-        <v>33.81294636234149</v>
+        <v>34.10091660552423</v>
       </c>
       <c r="Q16" s="39" t="n">
-        <v>1684270223.39478</v>
+        <v>1734329413.33927</v>
       </c>
       <c r="R16" s="45" t="n">
-        <v>31.80130020388108</v>
+        <v>32.11570819288964</v>
       </c>
       <c r="S16" s="39" t="n">
         <v>1976619307.2825</v>
       </c>
       <c r="T16" s="45" t="n">
-        <v>30.70752762545678</v>
-      </c>
-      <c r="U16" s="49" t="n">
-        <v>2149524776.55849</v>
-      </c>
-      <c r="V16" s="49" t="n">
-        <v>28.25788765013993</v>
-      </c>
-      <c r="W16" s="39" t="n">
-        <v>2475631219.61625</v>
-      </c>
-      <c r="X16" s="45" t="n">
-        <v>28.81618082645034</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="11.25" r="17" s="53" spans="1:24">
+        <v>30.70775522070943</v>
+      </c>
+      <c r="U16" s="48" t="n">
+        <v>2157725036.46671</v>
+      </c>
+      <c r="V16" s="45" t="n">
+        <v>28.15702983692317</v>
+      </c>
+      <c r="W16" s="48" t="n">
+        <v>2495113510.81164</v>
+      </c>
+      <c r="X16" s="48" t="n">
+        <v>28.62883430626619</v>
+      </c>
+      <c r="Y16" s="39" t="n">
+        <v>2857344618.9</v>
+      </c>
+      <c r="Z16" s="45" t="n">
+        <v>26.9645202595627</v>
+      </c>
+    </row>
+    <row r="17" ht="10.5" customHeight="1" s="54">
       <c r="A17" s="16" t="n"/>
       <c r="B17" s="5" t="n"/>
       <c r="C17" s="39" t="n"/>
@@ -1389,15 +1498,19 @@
       <c r="R17" s="45" t="n"/>
       <c r="S17" s="41" t="n"/>
       <c r="T17" s="45" t="n"/>
-      <c r="U17" s="49" t="n"/>
-      <c r="V17" s="49" t="n"/>
-      <c r="W17" s="41" t="n"/>
-      <c r="X17" s="45" t="n"/>
-    </row>
-    <row customHeight="1" ht="11.25" r="18" s="53" spans="1:24">
+      <c r="U17" s="48" t="n"/>
+      <c r="V17" s="45" t="n"/>
+      <c r="W17" s="48" t="n"/>
+      <c r="X17" s="48" t="n"/>
+      <c r="Y17" s="41" t="n"/>
+      <c r="Z17" s="45" t="n"/>
+    </row>
+    <row r="18" ht="10.5" customHeight="1" s="54">
       <c r="A18" s="16" t="n"/>
-      <c r="B18" s="10" t="s">
-        <v>10</v>
+      <c r="B18" s="10" t="inlineStr">
+        <is>
+          <t>COMPOSITION OF SHAREHOLDERS</t>
+        </is>
       </c>
       <c r="C18" s="42" t="n"/>
       <c r="D18" s="46" t="n"/>
@@ -1417,15 +1530,19 @@
       <c r="R18" s="46" t="n"/>
       <c r="S18" s="42" t="n"/>
       <c r="T18" s="46" t="n"/>
-      <c r="U18" s="50" t="n"/>
-      <c r="V18" s="50" t="n"/>
-      <c r="W18" s="42" t="n"/>
-      <c r="X18" s="46" t="n"/>
-    </row>
-    <row customHeight="1" ht="11.25" r="19" s="53" spans="1:24">
+      <c r="U18" s="49" t="n"/>
+      <c r="V18" s="46" t="n"/>
+      <c r="W18" s="49" t="n"/>
+      <c r="X18" s="49" t="n"/>
+      <c r="Y18" s="42" t="n"/>
+      <c r="Z18" s="46" t="n"/>
+    </row>
+    <row r="19" ht="10.5" customHeight="1" s="54">
       <c r="A19" s="16" t="n"/>
-      <c r="B19" s="10" t="s">
-        <v>11</v>
+      <c r="B19" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQUITY</t>
+        </is>
       </c>
       <c r="C19" s="39" t="n"/>
       <c r="D19" s="45" t="n"/>
@@ -1445,63 +1562,67 @@
       <c r="R19" s="45" t="n"/>
       <c r="S19" s="41" t="n"/>
       <c r="T19" s="45" t="n"/>
-      <c r="U19" s="49" t="n"/>
-      <c r="V19" s="49" t="n"/>
-      <c r="W19" s="41" t="n"/>
-      <c r="X19" s="45" t="n"/>
-    </row>
-    <row customHeight="1" ht="11.25" r="20" s="53" spans="1:24">
+      <c r="U19" s="48" t="n"/>
+      <c r="V19" s="45" t="n"/>
+      <c r="W19" s="48" t="n"/>
+      <c r="X19" s="48" t="n"/>
+      <c r="Y19" s="41" t="n"/>
+      <c r="Z19" s="45" t="n"/>
+    </row>
+    <row r="20" ht="10.5" customHeight="1" s="54">
       <c r="A20" s="16" t="n"/>
-      <c r="B20" s="27" t="s">
-        <v>12</v>
+      <c r="B20" s="27" t="inlineStr">
+        <is>
+          <t>Paid-in Capital</t>
+        </is>
       </c>
       <c r="C20" s="39" t="n">
-        <v>581802957.7520801</v>
+        <v>581805657.29368</v>
       </c>
       <c r="D20" s="45" t="n">
-        <v>73.78894568005923</v>
+        <v>73.78912179114396</v>
       </c>
       <c r="E20" s="44" t="n">
-        <v>653039244.6054699</v>
+        <v>654032700.67505</v>
       </c>
       <c r="F20" s="45" t="n">
-        <v>73.00027292465086</v>
+        <v>72.97045967121402</v>
       </c>
       <c r="G20" s="39" t="n">
-        <v>729751079.28136</v>
+        <v>731226403.9789299</v>
       </c>
       <c r="H20" s="45" t="n">
-        <v>74.26568645641257</v>
+        <v>74.21688373535483</v>
       </c>
       <c r="I20" s="39" t="n">
-        <v>804564369.7516799</v>
+        <v>810626120.9826801</v>
       </c>
       <c r="J20" s="45" t="n">
-        <v>71.82989539100539</v>
+        <v>71.84564945084811</v>
       </c>
       <c r="K20" s="39" t="n">
-        <v>898073009.5361199</v>
+        <v>908354595.7217101</v>
       </c>
       <c r="L20" s="45" t="n">
-        <v>72.39563736790787</v>
+        <v>72.43930948977521</v>
       </c>
       <c r="M20" s="39" t="n">
-        <v>988777584.9972199</v>
+        <v>1008897608.89221</v>
       </c>
       <c r="N20" s="45" t="n">
-        <v>72.36965429218536</v>
+        <v>72.34314590030723</v>
       </c>
       <c r="O20" s="39" t="n">
-        <v>1054077131.86065</v>
+        <v>1135102218.28774</v>
       </c>
       <c r="P20" s="45" t="n">
-        <v>73.39172656394058</v>
+        <v>72.2885197779721</v>
       </c>
       <c r="Q20" s="39" t="n">
-        <v>1230277084.08601</v>
+        <v>1250900902.08343</v>
       </c>
       <c r="R20" s="45" t="n">
-        <v>73.04511277331075</v>
+        <v>72.12591174792747</v>
       </c>
       <c r="S20" s="39" t="n">
         <v>1389962781.84227</v>
@@ -1509,143 +1630,159 @@
       <c r="T20" s="45" t="n">
         <v>70.32020666403494</v>
       </c>
-      <c r="U20" s="49" t="n">
-        <v>1475792442.20876</v>
-      </c>
-      <c r="V20" s="49" t="n">
-        <v>68.65668441243031</v>
-      </c>
-      <c r="W20" s="39" t="n">
-        <v>1649003218.12286</v>
-      </c>
-      <c r="X20" s="45" t="n">
-        <v>66.60940470683163</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="11.25" r="21" s="53" spans="1:24">
+      <c r="U20" s="48" t="n">
+        <v>1489233524.6012</v>
+      </c>
+      <c r="V20" s="45" t="n">
+        <v>69.01868863883742</v>
+      </c>
+      <c r="W20" s="48" t="n">
+        <v>1670650896.8598</v>
+      </c>
+      <c r="X20" s="48" t="n">
+        <v>66.95690956025285</v>
+      </c>
+      <c r="Y20" s="39" t="n">
+        <v>1874142607.144</v>
+      </c>
+      <c r="Z20" s="45" t="n">
+        <v>65.59035948087683</v>
+      </c>
+    </row>
+    <row r="21" ht="10.5" customHeight="1" s="54">
       <c r="A21" s="16" t="n"/>
-      <c r="B21" s="27" t="s">
-        <v>13</v>
+      <c r="B21" s="27" t="inlineStr">
+        <is>
+          <t>Capital Reserves</t>
+        </is>
       </c>
       <c r="C21" s="39" t="n">
-        <v>68046356.27688999</v>
+        <v>68046556.27689001</v>
       </c>
       <c r="D21" s="45" t="n">
-        <v>8.630187970238868</v>
+        <v>8.630193889725025</v>
       </c>
       <c r="E21" s="44" t="n">
-        <v>76063476.45866999</v>
+        <v>76072159.57320002</v>
       </c>
       <c r="F21" s="45" t="n">
-        <v>8.50278844181144</v>
+        <v>8.48737447914905</v>
       </c>
       <c r="G21" s="39" t="n">
-        <v>98565031.82714002</v>
+        <v>99056676.54617999</v>
       </c>
       <c r="H21" s="45" t="n">
-        <v>10.03081729793295</v>
+        <v>10.05390096204776</v>
       </c>
       <c r="I21" s="39" t="n">
-        <v>110028557.18937</v>
+        <v>110731850.99056</v>
       </c>
       <c r="J21" s="45" t="n">
-        <v>9.823129198941512</v>
+        <v>9.814144330393841</v>
       </c>
       <c r="K21" s="39" t="n">
-        <v>119916493.55785</v>
+        <v>120768444.03909</v>
       </c>
       <c r="L21" s="45" t="n">
-        <v>9.666731869081971</v>
+        <v>9.631021558706854</v>
       </c>
       <c r="M21" s="39" t="n">
-        <v>123788289.48057</v>
+        <v>125595323.61416</v>
       </c>
       <c r="N21" s="45" t="n">
-        <v>9.060192960538243</v>
+        <v>9.005830463402575</v>
       </c>
       <c r="O21" s="39" t="n">
-        <v>116746489.69932</v>
+        <v>136663906.83311</v>
       </c>
       <c r="P21" s="45" t="n">
-        <v>8.128652249753127</v>
+        <v>8.703384922410486</v>
       </c>
       <c r="Q21" s="39" t="n">
-        <v>157773972.17597</v>
+        <v>180060417.48599</v>
       </c>
       <c r="R21" s="45" t="n">
-        <v>9.367497565679457</v>
+        <v>10.38213479521762</v>
       </c>
       <c r="S21" s="39" t="n">
         <v>183336667.04121</v>
       </c>
       <c r="T21" s="45" t="n">
-        <v>9.275264405530132</v>
-      </c>
-      <c r="U21" s="49" t="n">
-        <v>249424068.95471</v>
-      </c>
-      <c r="V21" s="49" t="n">
-        <v>11.60368429686361</v>
-      </c>
-      <c r="W21" s="39" t="n">
-        <v>268169976.41577</v>
-      </c>
-      <c r="X21" s="45" t="n">
-        <v>10.83238788923252</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="11.25" r="22" s="53" spans="1:24">
+        <v>9.275264405530134</v>
+      </c>
+      <c r="U21" s="48" t="n">
+        <v>251089466.52154</v>
+      </c>
+      <c r="V21" s="45" t="n">
+        <v>11.63676846113353</v>
+      </c>
+      <c r="W21" s="48" t="n">
+        <v>272276207.98994</v>
+      </c>
+      <c r="X21" s="48" t="n">
+        <v>10.91237760567337</v>
+      </c>
+      <c r="Y21" s="39" t="n">
+        <v>285684401.553</v>
+      </c>
+      <c r="Z21" s="45" t="n">
+        <v>9.998248011924467</v>
+      </c>
+    </row>
+    <row r="22" ht="10.5" customHeight="1" s="54">
       <c r="A22" s="16" t="n"/>
-      <c r="B22" s="27" t="s">
-        <v>14</v>
+      <c r="B22" s="27" t="inlineStr">
+        <is>
+          <t>Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C22" s="39" t="n">
-        <v>139559969.43162</v>
+        <v>139560012.81136</v>
       </c>
       <c r="D22" s="45" t="n">
-        <v>17.70012143508</v>
+        <v>17.70008705383367</v>
       </c>
       <c r="E22" s="44" t="n">
-        <v>143432899.85791</v>
+        <v>143999172.41953</v>
       </c>
       <c r="F22" s="45" t="n">
-        <v>16.03370842180752</v>
+        <v>16.06599454871623</v>
       </c>
       <c r="G22" s="39" t="n">
-        <v>168232860.10835</v>
+        <v>169440989.61226</v>
       </c>
       <c r="H22" s="45" t="n">
-        <v>17.12080899253474</v>
+        <v>17.19765883401951</v>
       </c>
       <c r="I22" s="39" t="n">
-        <v>193672485.94554</v>
+        <v>195642618.52696</v>
       </c>
       <c r="J22" s="45" t="n">
-        <v>17.29069161971183</v>
+        <v>17.33977061002491</v>
       </c>
       <c r="K22" s="39" t="n">
-        <v>207355978.70825</v>
+        <v>212054051.00454</v>
       </c>
       <c r="L22" s="45" t="n">
-        <v>16.71542077451369</v>
+        <v>16.91085078627661</v>
       </c>
       <c r="M22" s="39" t="n">
-        <v>228446475.74268</v>
+        <v>235133429.80949</v>
       </c>
       <c r="N22" s="45" t="n">
-        <v>16.72023387728024</v>
+        <v>16.86027587816888</v>
       </c>
       <c r="O22" s="39" t="n">
-        <v>230457125.97905</v>
+        <v>259063680.12161</v>
       </c>
       <c r="P22" s="45" t="n">
-        <v>16.04592857897428</v>
+        <v>16.49836434332296</v>
       </c>
       <c r="Q22" s="39" t="n">
-        <v>288527003.49282</v>
+        <v>293804336.70915</v>
       </c>
       <c r="R22" s="45" t="n">
-        <v>17.13068363289538</v>
+        <v>16.94051513221242</v>
       </c>
       <c r="S22" s="39" t="n">
         <v>337084253.17411</v>
@@ -1653,215 +1790,239 @@
       <c r="T22" s="45" t="n">
         <v>17.05357485542023</v>
       </c>
-      <c r="U22" s="49" t="n">
-        <v>385330832.59988</v>
-      </c>
-      <c r="V22" s="49" t="n">
-        <v>17.92632663750061</v>
-      </c>
-      <c r="W22" s="39" t="n">
-        <v>450570711.7879199</v>
-      </c>
-      <c r="X22" s="45" t="n">
-        <v>18.20023548813394</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="11.25" r="23" s="53" spans="1:24">
+      <c r="U22" s="48" t="n">
+        <v>387195377.0262</v>
+      </c>
+      <c r="V22" s="45" t="n">
+        <v>17.94461159241287</v>
+      </c>
+      <c r="W22" s="48" t="n">
+        <v>452994480.19943</v>
+      </c>
+      <c r="X22" s="48" t="n">
+        <v>18.15526541123472</v>
+      </c>
+      <c r="Y22" s="39" t="n">
+        <v>555501341.175</v>
+      </c>
+      <c r="Z22" s="45" t="n">
+        <v>19.44117407122047</v>
+      </c>
+    </row>
+    <row r="23" ht="10.5" customHeight="1" s="54">
       <c r="A23" s="16" t="n"/>
-      <c r="B23" s="27" t="s">
-        <v>15</v>
+      <c r="B23" s="27" t="inlineStr">
+        <is>
+          <t>Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C23" s="39" t="n">
-        <v>124352153.49533</v>
+        <v>124352574.66724</v>
       </c>
       <c r="D23" s="45" t="n">
-        <v>15.7713435059148</v>
+        <v>15.77136138525302</v>
       </c>
       <c r="E23" s="44" t="n">
-        <v>147298431.6089</v>
+        <v>147317120.91458</v>
       </c>
       <c r="F23" s="45" t="n">
-        <v>16.46581855171504</v>
+        <v>16.43617822087715</v>
       </c>
       <c r="G23" s="39" t="n">
-        <v>173289941.92366</v>
+        <v>173509504.9649</v>
       </c>
       <c r="H23" s="45" t="n">
-        <v>17.63546071850421</v>
+        <v>17.6105986967752</v>
       </c>
       <c r="I23" s="39" t="n">
-        <v>199442454.50587</v>
+        <v>200251485.44497</v>
       </c>
       <c r="J23" s="45" t="n">
-        <v>17.80582285554547</v>
+        <v>17.74825366822633</v>
       </c>
       <c r="K23" s="39" t="n">
-        <v>239779885.04361</v>
+        <v>241357913.43704</v>
       </c>
       <c r="L23" s="45" t="n">
-        <v>19.32918306352648</v>
+        <v>19.24777027784046</v>
       </c>
       <c r="M23" s="39" t="n">
-        <v>282602344.2665499</v>
+        <v>286671908.25687</v>
       </c>
       <c r="N23" s="45" t="n">
-        <v>20.6839579163689</v>
+        <v>20.55584977282066</v>
       </c>
       <c r="O23" s="39" t="n">
-        <v>326123677.33631</v>
+        <v>340799105.3094701</v>
       </c>
       <c r="P23" s="45" t="n">
-        <v>22.70685799894333</v>
+        <v>21.70365141356267</v>
       </c>
       <c r="Q23" s="39" t="n">
-        <v>394573091.97557</v>
+        <v>407072686.6815</v>
       </c>
       <c r="R23" s="45" t="n">
-        <v>23.42694696461929</v>
+        <v>23.47147453941429</v>
       </c>
       <c r="S23" s="39" t="n">
-        <v>465145119.07404</v>
+        <v>465145119.0740401</v>
       </c>
       <c r="T23" s="45" t="n">
-        <v>23.53235736190049</v>
-      </c>
-      <c r="U23" s="49" t="n">
-        <v>563616810.94639</v>
-      </c>
-      <c r="V23" s="49" t="n">
-        <v>26.22053102587504</v>
-      </c>
-      <c r="W23" s="39" t="n">
-        <v>680003797.00622</v>
-      </c>
-      <c r="X23" s="45" t="n">
-        <v>27.46789552571679</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="11.25" r="24" s="3" spans="1:24">
+        <v>23.5323573619005</v>
+      </c>
+      <c r="U23" s="48" t="n">
+        <v>569712313.6655101</v>
+      </c>
+      <c r="V23" s="45" t="n">
+        <v>26.40337874553367</v>
+      </c>
+      <c r="W23" s="48" t="n">
+        <v>690982806.4152499</v>
+      </c>
+      <c r="X23" s="48" t="n">
+        <v>27.69344173806661</v>
+      </c>
+      <c r="Y23" s="39" t="n">
+        <v>917145947.151</v>
+      </c>
+      <c r="Z23" s="45" t="n">
+        <v>32.0978415093688</v>
+      </c>
+    </row>
+    <row r="24" ht="10.5" customFormat="1" customHeight="1" s="3">
       <c r="A24" s="17" t="n"/>
-      <c r="B24" s="27" t="s">
-        <v>16</v>
+      <c r="B24" s="27" t="inlineStr">
+        <is>
+          <t>Loss Brought Forward  (-)</t>
+        </is>
       </c>
       <c r="C24" s="39" t="n">
-        <v>178796498.91415</v>
+        <v>178797428.56441</v>
       </c>
       <c r="D24" s="45" t="n">
-        <v>22.67641470427677</v>
+        <v>22.67648151386569</v>
       </c>
       <c r="E24" s="44" t="n">
-        <v>193656575.48052</v>
+        <v>193670871.21837</v>
       </c>
       <c r="F24" s="45" t="n">
-        <v>21.64798360973235</v>
+        <v>21.60786835756463</v>
       </c>
       <c r="G24" s="39" t="n">
-        <v>213150064.80752</v>
+        <v>213899321.68826</v>
       </c>
       <c r="H24" s="45" t="n">
-        <v>21.69196638495967</v>
+        <v>21.71002168743661</v>
       </c>
       <c r="I24" s="39" t="n">
-        <v>275206330.65421</v>
+        <v>276835946.48296</v>
       </c>
       <c r="J24" s="45" t="n">
-        <v>24.56986996321443</v>
+        <v>24.53592087841622</v>
       </c>
       <c r="K24" s="39" t="n">
-        <v>283226378.0763199</v>
+        <v>286751838.5075</v>
       </c>
       <c r="L24" s="45" t="n">
-        <v>22.83150027059638</v>
+        <v>22.86783737787211</v>
       </c>
       <c r="M24" s="39" t="n">
-        <v>337234761.42473</v>
+        <v>344337354.92804</v>
       </c>
       <c r="N24" s="45" t="n">
-        <v>24.68256104297099</v>
+        <v>24.69075879150636</v>
       </c>
       <c r="O24" s="39" t="n">
-        <v>370382050.18579</v>
+        <v>390871586.35382</v>
       </c>
       <c r="P24" s="45" t="n">
-        <v>25.78841465182343</v>
+        <v>24.89249685672175</v>
       </c>
       <c r="Q24" s="39" t="n">
-        <v>449605062.46538</v>
+        <v>463468959.1121901</v>
       </c>
       <c r="R24" s="45" t="n">
-        <v>26.6943543987357</v>
+        <v>26.72323697836785</v>
       </c>
       <c r="S24" s="39" t="n">
         <v>563385664.23901</v>
       </c>
       <c r="T24" s="45" t="n">
-        <v>28.50248715892414</v>
-      </c>
-      <c r="U24" s="49" t="n">
-        <v>609561723.8343101</v>
-      </c>
-      <c r="V24" s="49" t="n">
-        <v>28.35797616672522</v>
-      </c>
-      <c r="W24" s="39" t="n">
-        <v>821450119.65525</v>
-      </c>
-      <c r="X24" s="45" t="n">
-        <v>33.18144128843971</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="11.25" r="25" s="3" spans="1:24">
+        <v>28.50248715892415</v>
+      </c>
+      <c r="U24" s="48" t="n">
+        <v>622473397.4821501</v>
+      </c>
+      <c r="V24" s="45" t="n">
+        <v>28.84859687689654</v>
+      </c>
+      <c r="W24" s="48" t="n">
+        <v>841760537.6715901</v>
+      </c>
+      <c r="X24" s="48" t="n">
+        <v>33.73636245502002</v>
+      </c>
+      <c r="Y24" s="39" t="n">
+        <v>996777593.829</v>
+      </c>
+      <c r="Z24" s="45" t="n">
+        <v>34.88475234088958</v>
+      </c>
+    </row>
+    <row r="25" ht="10.5" customFormat="1" customHeight="1" s="3">
       <c r="A25" s="17" t="n"/>
-      <c r="B25" s="27" t="s">
-        <v>17</v>
+      <c r="B25" s="27" t="inlineStr">
+        <is>
+          <t>Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C25" s="39" t="n">
-        <v>53504056.04674</v>
+        <v>53503398.2346</v>
       </c>
       <c r="D25" s="45" t="n">
-        <v>6.785816112983876</v>
+        <v>6.785717393910019</v>
       </c>
       <c r="E25" s="44" t="n">
-        <v>68393486.10134001</v>
+        <v>68547621.77688001</v>
       </c>
       <c r="F25" s="45" t="n">
-        <v>7.645395269747492</v>
+        <v>7.647861437608189</v>
       </c>
       <c r="G25" s="39" t="n">
-        <v>25933294.00681</v>
+        <v>25921886.66641</v>
       </c>
       <c r="H25" s="45" t="n">
-        <v>2.639192919575185</v>
+        <v>2.630979459239317</v>
       </c>
       <c r="I25" s="39" t="n">
-        <v>87595277.23041999</v>
+        <v>87872259.85391</v>
       </c>
       <c r="J25" s="45" t="n">
-        <v>7.820330898010225</v>
+        <v>7.78810281892303</v>
       </c>
       <c r="K25" s="39" t="n">
-        <v>58608094.51258999</v>
+        <v>58169421.81553</v>
       </c>
       <c r="L25" s="45" t="n">
-        <v>4.72452719556637</v>
+        <v>4.638885265273005</v>
       </c>
       <c r="M25" s="39" t="n">
-        <v>79907628.57939999</v>
+        <v>82639217.28639001</v>
       </c>
       <c r="N25" s="45" t="n">
-        <v>5.848521996598242</v>
+        <v>5.925656776807001</v>
       </c>
       <c r="O25" s="39" t="n">
-        <v>79211900.22197001</v>
+        <v>89481244.49039999</v>
       </c>
       <c r="P25" s="45" t="n">
-        <v>5.515249260212122</v>
+        <v>5.698576399453508</v>
       </c>
       <c r="Q25" s="39" t="n">
-        <v>62724134.12978999</v>
+        <v>65960029.49139</v>
       </c>
       <c r="R25" s="45" t="n">
-        <v>3.724113462230813</v>
+        <v>3.80320076359605</v>
       </c>
       <c r="S25" s="39" t="n">
         <v>164476150.38988</v>
@@ -1869,20 +2030,26 @@
       <c r="T25" s="45" t="n">
         <v>8.321083872038336</v>
       </c>
-      <c r="U25" s="49" t="n">
-        <v>84922345.68305999</v>
-      </c>
-      <c r="V25" s="49" t="n">
-        <v>3.950749794055664</v>
-      </c>
-      <c r="W25" s="39" t="n">
-        <v>249333635.93873</v>
-      </c>
-      <c r="X25" s="45" t="n">
-        <v>10.07151767852481</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="11.25" r="26" s="53" spans="1:24">
+      <c r="U25" s="48" t="n">
+        <v>82967752.13441001</v>
+      </c>
+      <c r="V25" s="45" t="n">
+        <v>3.84514943897904</v>
+      </c>
+      <c r="W25" s="48" t="n">
+        <v>249969657.01881</v>
+      </c>
+      <c r="X25" s="48" t="n">
+        <v>10.01836813979244</v>
+      </c>
+      <c r="Y25" s="39" t="n">
+        <v>221647915.706</v>
+      </c>
+      <c r="Z25" s="45" t="n">
+        <v>7.757129267499012</v>
+      </c>
+    </row>
+    <row r="26" ht="10.5" customHeight="1" s="54">
       <c r="A26" s="16" t="n"/>
       <c r="B26" s="27" t="n"/>
       <c r="C26" s="39" t="n"/>
@@ -1903,112 +2070,126 @@
       <c r="R26" s="45" t="n"/>
       <c r="S26" s="41" t="n"/>
       <c r="T26" s="45" t="n"/>
-      <c r="U26" s="49" t="n"/>
-      <c r="V26" s="49" t="n"/>
-      <c r="W26" s="41" t="n"/>
-      <c r="X26" s="45" t="n"/>
-    </row>
-    <row customHeight="1" ht="11.25" r="27" s="53" spans="1:24">
+      <c r="U26" s="48" t="n"/>
+      <c r="V26" s="45" t="n"/>
+      <c r="W26" s="48" t="n"/>
+      <c r="X26" s="48" t="n"/>
+      <c r="Y26" s="41" t="n"/>
+      <c r="Z26" s="45" t="n"/>
+    </row>
+    <row r="27" ht="10.5" customHeight="1" s="54">
       <c r="A27" s="16" t="n"/>
-      <c r="B27" s="27" t="s">
-        <v>18</v>
+      <c r="B27" s="27" t="inlineStr">
+        <is>
+          <t>Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C27" s="39" t="n">
-        <v>86398610.50766</v>
+        <v>86398707.27297999</v>
       </c>
       <c r="D27" s="45" t="n"/>
       <c r="E27" s="44" t="n">
-        <v>101528189.77074</v>
+        <v>101695040.06908</v>
       </c>
       <c r="F27" s="45" t="n"/>
       <c r="G27" s="39" t="n">
-        <v>111859632.16997</v>
+        <v>111904943.2964</v>
       </c>
       <c r="H27" s="45" t="n"/>
       <c r="I27" s="39" t="n">
-        <v>127140485.66839</v>
+        <v>127551193.5697</v>
       </c>
       <c r="J27" s="45" t="n"/>
       <c r="K27" s="39" t="n">
-        <v>136893892.84638</v>
+        <v>137883374.874</v>
       </c>
       <c r="L27" s="45" t="n"/>
       <c r="M27" s="39" t="n">
-        <v>151617642.7917</v>
+        <v>155988096.36315</v>
       </c>
       <c r="N27" s="45" t="n"/>
       <c r="O27" s="39" t="n">
-        <v>172872132.89758</v>
+        <v>190283164.31074</v>
       </c>
       <c r="P27" s="45" t="n"/>
       <c r="Q27" s="39" t="n">
-        <v>202708480.07463</v>
+        <v>207730783.42553</v>
       </c>
       <c r="R27" s="45" t="n"/>
       <c r="S27" s="39" t="n">
         <v>280491069.80962</v>
       </c>
       <c r="T27" s="45" t="n"/>
-      <c r="U27" s="49" t="n">
-        <v>355668942.2552</v>
-      </c>
-      <c r="V27" s="49" t="n"/>
-      <c r="W27" s="39" t="n">
-        <v>431057609.37286</v>
-      </c>
-      <c r="X27" s="45" t="n"/>
-    </row>
-    <row customHeight="1" ht="11.25" r="28" s="53" spans="1:24">
+      <c r="U27" s="48" t="n">
+        <v>356674746.74684</v>
+      </c>
+      <c r="V27" s="45" t="n"/>
+      <c r="W27" s="48" t="n">
+        <v>434470117.15953</v>
+      </c>
+      <c r="X27" s="48" t="n"/>
+      <c r="Y27" s="39" t="n">
+        <v>542828267.508</v>
+      </c>
+      <c r="Z27" s="45" t="n"/>
+    </row>
+    <row r="28" ht="10.5" customHeight="1" s="54">
       <c r="A28" s="16" t="n"/>
-      <c r="B28" s="27" t="s">
-        <v>19</v>
+      <c r="B28" s="27" t="inlineStr">
+        <is>
+          <t>Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C28" s="39" t="n">
-        <v>-32894554.46092</v>
+        <v>-32895309.03838</v>
       </c>
       <c r="D28" s="45" t="n"/>
       <c r="E28" s="44" t="n">
-        <v>-33134703.6694</v>
+        <v>-33147418.2922</v>
       </c>
       <c r="F28" s="45" t="n"/>
       <c r="G28" s="39" t="n">
-        <v>-85926338.16316</v>
+        <v>-85983056.62999</v>
       </c>
       <c r="H28" s="45" t="n"/>
       <c r="I28" s="39" t="n">
-        <v>-39545208.43797</v>
+        <v>-39678933.71579001</v>
       </c>
       <c r="J28" s="45" t="n"/>
       <c r="K28" s="39" t="n">
-        <v>-78285798.33379</v>
+        <v>-79713953.05847</v>
       </c>
       <c r="L28" s="45" t="n"/>
       <c r="M28" s="39" t="n">
-        <v>-71710014.21229999</v>
+        <v>-73348879.07676001</v>
       </c>
       <c r="N28" s="45" t="n"/>
       <c r="O28" s="39" t="n">
-        <v>-93660232.67561001</v>
+        <v>-100801919.82034</v>
       </c>
       <c r="P28" s="45" t="n"/>
       <c r="Q28" s="39" t="n">
-        <v>-139984345.94484</v>
+        <v>-141770753.93414</v>
       </c>
       <c r="R28" s="45" t="n"/>
       <c r="S28" s="39" t="n">
         <v>-116014919.41974</v>
       </c>
       <c r="T28" s="45" t="n"/>
-      <c r="U28" s="49" t="n">
-        <v>-270746596.57214</v>
-      </c>
-      <c r="V28" s="49" t="n"/>
-      <c r="W28" s="39" t="n">
-        <v>-181723973.43413</v>
-      </c>
-      <c r="X28" s="45" t="n"/>
-    </row>
-    <row customHeight="1" ht="11.25" r="29" s="53" spans="1:24">
+      <c r="U28" s="48" t="n">
+        <v>-273706994.61243</v>
+      </c>
+      <c r="V28" s="45" t="n"/>
+      <c r="W28" s="48" t="n">
+        <v>-184500460.14072</v>
+      </c>
+      <c r="X28" s="48" t="n"/>
+      <c r="Y28" s="39" t="n">
+        <v>-321180351.802</v>
+      </c>
+      <c r="Z28" s="45" t="n"/>
+    </row>
+    <row r="29" ht="10.5" customHeight="1" s="54">
       <c r="A29" s="16" t="n"/>
       <c r="B29" s="27" t="n"/>
       <c r="C29" s="19" t="n"/>
@@ -2030,45 +2211,49 @@
       <c r="S29" s="16" t="n"/>
       <c r="T29" s="32" t="n"/>
       <c r="U29" s="20" t="n"/>
-      <c r="V29" s="20" t="n"/>
-      <c r="W29" s="16" t="n"/>
-      <c r="X29" s="32" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="18" r="30" s="2" spans="1:24">
+      <c r="V29" s="32" t="n"/>
+      <c r="W29" s="20" t="n"/>
+      <c r="X29" s="20" t="n"/>
+      <c r="Y29" s="16" t="n"/>
+      <c r="Z29" s="32" t="n"/>
+    </row>
+    <row r="30" ht="18" customFormat="1" customHeight="1" s="2">
       <c r="A30" s="37" t="n"/>
-      <c r="B30" s="38" t="s">
-        <v>20</v>
+      <c r="B30" s="38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Number of Companies  </t>
+        </is>
       </c>
       <c r="C30" s="36" t="n">
-        <v>557912</v>
+        <v>557925</v>
       </c>
       <c r="D30" s="35" t="n"/>
       <c r="E30" s="36" t="n">
-        <v>579637</v>
+        <v>579683</v>
       </c>
       <c r="F30" s="35" t="n"/>
       <c r="G30" s="36" t="n">
-        <v>600169</v>
+        <v>600354</v>
       </c>
       <c r="H30" s="35" t="n"/>
       <c r="I30" s="36" t="n">
-        <v>602589</v>
+        <v>603390</v>
       </c>
       <c r="J30" s="35" t="n"/>
       <c r="K30" s="36" t="n">
-        <v>610891</v>
+        <v>612704</v>
       </c>
       <c r="L30" s="35" t="n"/>
       <c r="M30" s="36" t="n">
-        <v>625269</v>
+        <v>628474</v>
       </c>
       <c r="N30" s="35" t="n"/>
       <c r="O30" s="36" t="n">
-        <v>646919</v>
+        <v>655179</v>
       </c>
       <c r="P30" s="35" t="n"/>
       <c r="Q30" s="36" t="n">
-        <v>676952</v>
+        <v>682004</v>
       </c>
       <c r="R30" s="35" t="n"/>
       <c r="S30" s="36" t="n">
@@ -2076,15 +2261,19 @@
       </c>
       <c r="T30" s="35" t="n"/>
       <c r="U30" s="36" t="n">
-        <v>713883</v>
-      </c>
-      <c r="V30" s="51" t="n"/>
-      <c r="W30" s="36" t="n">
-        <v>730221</v>
-      </c>
-      <c r="X30" s="35" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="31" s="53" spans="1:24">
+        <v>764380</v>
+      </c>
+      <c r="V30" s="35" t="n"/>
+      <c r="W30" s="53" t="n">
+        <v>805083</v>
+      </c>
+      <c r="X30" s="50" t="n"/>
+      <c r="Y30" s="36" t="n">
+        <v>860382</v>
+      </c>
+      <c r="Z30" s="35" t="n"/>
+    </row>
+    <row r="31" ht="12" customHeight="1" s="54">
       <c r="A31" s="18" t="n"/>
       <c r="B31" s="15" t="n"/>
       <c r="C31" s="24" t="n"/>
@@ -2105,17 +2294,19 @@
       <c r="R31" s="33" t="n"/>
       <c r="S31" s="18" t="n"/>
       <c r="T31" s="33" t="n"/>
-      <c r="U31" s="52" t="n"/>
-      <c r="V31" s="52" t="n"/>
-      <c r="W31" s="18" t="n"/>
-      <c r="X31" s="33" t="n"/>
-    </row>
-    <row customHeight="1" ht="15" r="32" s="53" spans="1:24">
+      <c r="U31" s="51" t="n"/>
+      <c r="V31" s="33" t="n"/>
+      <c r="W31" s="51" t="n"/>
+      <c r="X31" s="51" t="n"/>
+      <c r="Y31" s="18" t="n"/>
+      <c r="Z31" s="33" t="n"/>
+    </row>
+    <row r="32" ht="15" customHeight="1" s="54">
       <c r="A32" s="27" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="512" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="512" scale="93" horizontalDpi="4294967292" verticalDpi="300"/>
 </worksheet>
 </file>